--- a/data/external/Android/New Apps description.xlsx
+++ b/data/external/Android/New Apps description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhwani\Desktop\AppoMania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\OneDrive\Documents\Projects\Appomania\data\external\Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6CB800-904B-4E1B-AAA6-0A3D568CC647}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A99F2B7F-A15D-4E8A-9261-30B7BD707C2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{CD464F55-25F3-49F1-8ACA-2135D28FB276}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20486" windowHeight="7540" xr2:uid="{CD464F55-25F3-49F1-8ACA-2135D28FB276}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,22 +260,10 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Travel-navigation</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
     <t>Entertainment</t>
   </si>
   <si>
-    <t>Social &amp; communication</t>
-  </si>
-  <si>
     <t>Weather</t>
-  </si>
-  <si>
-    <t>Home &amp; Hobby</t>
   </si>
   <si>
     <t>Games</t>
@@ -331,12 +319,24 @@
   <si>
     <t>Productivity</t>
   </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Social Networking</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,16 +697,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E183B3-A4CC-4BB6-9CD6-C1D4A958F7A1}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="107.5703125" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.625" customWidth="1"/>
+    <col min="2" max="2" width="255.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -725,10 +727,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="214">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -736,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -747,10 +749,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42.8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -758,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -769,10 +771,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.1">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -780,10 +782,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.55">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -791,10 +793,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42.8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -802,10 +804,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.55">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -813,10 +815,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.8">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -824,10 +826,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="42.8">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -835,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.8">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -846,10 +848,10 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -857,10 +859,10 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42.8">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -868,10 +870,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.1">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -879,10 +881,10 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57.1">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -890,10 +892,10 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="99.85">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -901,10 +903,10 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.55">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -912,10 +914,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="42.8">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -923,10 +925,10 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42.8">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -934,10 +936,10 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="71.349999999999994">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -945,10 +947,10 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="42.8">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -956,10 +958,10 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -967,10 +969,10 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.55">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -978,10 +980,10 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.55">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -989,10 +991,10 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.55">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1000,10 +1002,10 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="42.8">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1011,51 +1013,51 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="85.6">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C32" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
